--- a/benchmark_results/tpch_cost_estimation_actual_vs_hypo/cost_difference_analysis.xlsx
+++ b/benchmark_results/tpch_cost_estimation_actual_vs_hypo/cost_difference_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Coding/mountedVolumes/mntSSHFS2/benchmark_results/tpch_hypopg_vs_actual_index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Coding/mountedVolumes/mntSSHFS2/benchmark_results/tpch_cost_estimation_actual_vs_hypo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909BD495-3927-4F4D-AA2C-FE0C40CE0567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5A48F-DA94-0D4A-9C15-157FD91FE23E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{0E6CF2B3-7E80-BB43-9441-10DA21536999}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Cost with hypo index</t>
   </si>
   <si>
-    <t>Relative cost hypo]</t>
+    <t>Query Number</t>
   </si>
   <si>
-    <t>Query Number</t>
+    <t>Relative cost hypo</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -425,7 +425,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -1038,6 +1038,7 @@
       <c r="F25" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>